--- a/datamining/final_data/topic2_candidates.xlsx
+++ b/datamining/final_data/topic2_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.42192</v>
+        <v>1.008533166666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.30845</v>
+        <v>0.7885248333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.45792</v>
+        <v>0.7749588333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.20166</v>
+        <v>0.7347173333333332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1674</v>
+        <v>0.6111066666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.19382</v>
+        <v>0.5710766666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.33303</v>
+        <v>0.5549946666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.31328</v>
+        <v>0.5249853333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.13555</v>
+        <v>0.5209753333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.12425</v>
+        <v>0.5150983333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.34451</v>
+        <v>0.5027553333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03607</v>
+        <v>0.5003968333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.34706</v>
+        <v>0.4710085000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.44801</v>
+        <v>0.4692210000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.31988</v>
+        <v>0.4472145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05343</v>
+        <v>0.4443963333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.29216</v>
+        <v>0.4198478333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.35825</v>
+        <v>0.4126343333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.30846</v>
+        <v>0.4114671666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.88598</v>
+        <v>0.3978051666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.15938</v>
+        <v>0.373963</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.21178</v>
+        <v>0.3722443333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.23441</v>
+        <v>0.3575118333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.13652</v>
+        <v>0.34854</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.23876</v>
+        <v>0.340091</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.07513</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.14817</v>
+        <v>0.3307088333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.16793</v>
+        <v>0.3303286666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.49008</v>
+        <v>0.3300403333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.15254</v>
+        <v>0.3280763333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.24395</v>
+        <v>0.3146548333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.42808</v>
+        <v>0.3079538333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.11045</v>
+        <v>0.302205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.53532</v>
+        <v>0.2994205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.10889</v>
+        <v>0.2946888333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01334</v>
+        <v>0.2914565</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1584</v>
+        <v>0.2914051666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.16775</v>
+        <v>0.2854038333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.17791</v>
+        <v>0.284553</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.10731</v>
+        <v>0.2810833333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1575</v>
+        <v>0.2631985</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.60388</v>
+        <v>0.2626193333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03172</v>
+        <v>0.2614868333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.55522</v>
+        <v>0.2600716666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.82307</v>
+        <v>0.2507373333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4526</v>
+        <v>0.2506173333333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.11452</v>
+        <v>0.2451048333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.12715</v>
+        <v>0.2414201666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.17544</v>
+        <v>0.2407898333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2225</v>
+        <v>0.2398151666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.40511</v>
+        <v>0.2350693333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.29769</v>
+        <v>0.2311248333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.31914</v>
+        <v>0.2297821666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.34134</v>
+        <v>0.2080266666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.51287</v>
+        <v>0.205219</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.67582</v>
+        <v>0.1988038333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.38881</v>
+        <v>0.1901663333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.60687</v>
+        <v>0.1898718333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.10966</v>
+        <v>0.1811128333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.61754</v>
+        <v>0.178358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.38964</v>
+        <v>0.1783103333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.60814</v>
+        <v>0.169925</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.13639</v>
+        <v>0.1638556666666666</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.18238</v>
+        <v>0.155715</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.36881</v>
+        <v>0.1551045</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.30962</v>
+        <v>0.154249</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0597</v>
+        <v>0.1480813333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.4666</v>
+        <v>0.145316</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.25089</v>
+        <v>0.1413646666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.05826</v>
+        <v>0.1375585</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.32329</v>
+        <v>0.1368593333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.30484</v>
+        <v>0.1352415</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1759</v>
+        <v>0.1307786666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.13172</v>
+        <v>0.13001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.58394</v>
+        <v>0.1291841666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.21352</v>
+        <v>0.1254316666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04566</v>
+        <v>0.1214293333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5563900000000001</v>
+        <v>0.1201791666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.35027</v>
+        <v>0.1188178333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.14924</v>
+        <v>0.1164625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.34798</v>
+        <v>0.1141556666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1619</v>
+        <v>0.1129135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4033</v>
+        <v>0.110368</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.20762</v>
+        <v>0.1087398333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.62278</v>
+        <v>0.1032756666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.29038</v>
+        <v>0.09996066666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.73139</v>
+        <v>0.09980283333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1449</v>
+        <v>0.09922983333333334</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.32393</v>
+        <v>0.09358349999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.50091</v>
+        <v>0.08619716666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.40236</v>
+        <v>0.08416183333333332</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.86676</v>
+        <v>0.08203516666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.46641</v>
+        <v>0.0798895</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.20188</v>
+        <v>0.03711399999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.35759</v>
+        <v>0.03673016666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.12169</v>
+        <v>0.02727216666666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.41805</v>
+        <v>0.018768</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.31477</v>
+        <v>0.01664466666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3173</v>
+        <v>0.01565066666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.48442</v>
+        <v>0.007844666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic2_candidates.xlsx
+++ b/datamining/final_data/topic2_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.008533166666667</v>
+        <v>0.9224688333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7885248333333333</v>
+        <v>0.8520063333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7749588333333333</v>
+        <v>0.8200725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7347173333333332</v>
+        <v>0.8032028333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6111066666666667</v>
+        <v>0.7845716666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5710766666666667</v>
+        <v>0.7806606666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5549946666666666</v>
+        <v>0.7612186666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5249853333333333</v>
+        <v>0.6928691666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5209753333333333</v>
+        <v>0.6727668333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5150983333333333</v>
+        <v>0.6591391666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5027553333333333</v>
+        <v>0.653678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5003968333333333</v>
+        <v>0.5853558333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4710085000000001</v>
+        <v>0.5793293333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4692210000000001</v>
+        <v>0.5736466666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4472145</v>
+        <v>0.530988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4443963333333334</v>
+        <v>0.5229068333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4198478333333333</v>
+        <v>0.51609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4126343333333333</v>
+        <v>0.515974</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4114671666666667</v>
+        <v>0.5137349999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3978051666666667</v>
+        <v>0.5105811666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.373963</v>
+        <v>0.5056023333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3722443333333333</v>
+        <v>0.5045964999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3575118333333334</v>
+        <v>0.4853305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.34854</v>
+        <v>0.4664528333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.340091</v>
+        <v>0.4637201666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3348</v>
+        <v>0.4632336666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3307088333333333</v>
+        <v>0.4474998333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3303286666666667</v>
+        <v>0.4454543333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3300403333333334</v>
+        <v>0.437501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3280763333333333</v>
+        <v>0.4176393333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3146548333333333</v>
+        <v>0.4155818333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3079538333333333</v>
+        <v>0.4153866666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.302205</v>
+        <v>0.395042</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2994205</v>
+        <v>0.3941095</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2946888333333333</v>
+        <v>0.3911870000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2914565</v>
+        <v>0.3893501666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2914051666666667</v>
+        <v>0.3706874999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2854038333333334</v>
+        <v>0.3706711666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.284553</v>
+        <v>0.3631455</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2810833333333334</v>
+        <v>0.3613116666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2631985</v>
+        <v>0.357451</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2626193333333333</v>
+        <v>0.3513778333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2614868333333333</v>
+        <v>0.347784</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2600716666666666</v>
+        <v>0.339067</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2507373333333334</v>
+        <v>0.3389005</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2506173333333334</v>
+        <v>0.3337881666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2451048333333333</v>
+        <v>0.3304925</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2414201666666666</v>
+        <v>0.3267703333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2407898333333333</v>
+        <v>0.3219126666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2398151666666667</v>
+        <v>0.3124836666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2350693333333333</v>
+        <v>0.3074538333333334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2311248333333333</v>
+        <v>0.3056148333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2297821666666667</v>
+        <v>0.2987646666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2080266666666666</v>
+        <v>0.2982673333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.205219</v>
+        <v>0.2963261666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1988038333333333</v>
+        <v>0.2810833333333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1901663333333333</v>
+        <v>0.2739046666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1898718333333333</v>
+        <v>0.2639106666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1811128333333333</v>
+        <v>0.2587506666666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.178358</v>
+        <v>0.2480846666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1783103333333333</v>
+        <v>0.246051</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.169925</v>
+        <v>0.2440801666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1638556666666666</v>
+        <v>0.241189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.155715</v>
+        <v>0.2407898333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1551045</v>
+        <v>0.2361386666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.154249</v>
+        <v>0.2089775</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1480813333333333</v>
+        <v>0.208311</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.145316</v>
+        <v>0.2072293333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1413646666666666</v>
+        <v>0.1916846666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1375585</v>
+        <v>0.1907146666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1368593333333333</v>
+        <v>0.1901663333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1352415</v>
+        <v>0.1901663333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1307786666666667</v>
+        <v>0.1807503333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.13001</v>
+        <v>0.1792003333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1291841666666667</v>
+        <v>0.1777756666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1254316666666667</v>
+        <v>0.1733208333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1214293333333333</v>
+        <v>0.1715276666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1201791666666667</v>
+        <v>0.1713176666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1188178333333333</v>
+        <v>0.1638638333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1164625</v>
+        <v>0.1581695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1141556666666667</v>
+        <v>0.153624</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1129135</v>
+        <v>0.153624</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.110368</v>
+        <v>0.1475713333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1087398333333333</v>
+        <v>0.1226171666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1032756666666667</v>
+        <v>0.1214286666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09996066666666667</v>
+        <v>0.1152491666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09980283333333334</v>
+        <v>0.1150173333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09922983333333334</v>
+        <v>0.1016206666666666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09358349999999999</v>
+        <v>0.09202783333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08619716666666667</v>
+        <v>0.08680983333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08416183333333332</v>
+        <v>0.06776966666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08203516666666666</v>
+        <v>0.066298</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0798895</v>
+        <v>0.05529183333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03711399999999999</v>
+        <v>0.05319266666666668</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03673016666666667</v>
+        <v>0.04252816666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02727216666666666</v>
+        <v>0.032264</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.018768</v>
+        <v>0.02956</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01664466666666667</v>
+        <v>0.01565066666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01565066666666667</v>
+        <v>0.0123535</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.007844666666666666</v>
+        <v>0.008358333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic2_candidates.xlsx
+++ b/datamining/final_data/topic2_candidates.xlsx
@@ -442,11 +442,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9224688333333333</v>
+        <v>0.904767</v>
       </c>
     </row>
     <row r="3">
@@ -472,911 +472,911 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8032028333333334</v>
+        <v>0.7612186666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7845716666666667</v>
+        <v>0.6928691666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7806606666666667</v>
+        <v>0.6869206666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7612186666666667</v>
+        <v>0.6789466666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6928691666666666</v>
+        <v>0.5853558333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6727668333333334</v>
+        <v>0.5793293333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6591391666666666</v>
+        <v>0.5436183333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.653678</v>
+        <v>0.530988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5853558333333333</v>
+        <v>0.5229068333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5793293333333334</v>
+        <v>0.51609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5736466666666666</v>
+        <v>0.515974</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.530988</v>
+        <v>0.512441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5229068333333333</v>
+        <v>0.4954249999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.51609</v>
+        <v>0.4853305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.515974</v>
+        <v>0.4809951666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5137349999999999</v>
+        <v>0.4753793333333334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5105811666666666</v>
+        <v>0.4637201666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5056023333333333</v>
+        <v>0.4632336666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5045964999999999</v>
+        <v>0.457453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4853305</v>
+        <v>0.4474998333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4664528333333334</v>
+        <v>0.4454543333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4637201666666667</v>
+        <v>0.4199141666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4632336666666667</v>
+        <v>0.395042</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4474998333333334</v>
+        <v>0.3941153333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4454543333333333</v>
+        <v>0.3911870000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.437501</v>
+        <v>0.3893501666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4176393333333333</v>
+        <v>0.3706874999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4155818333333333</v>
+        <v>0.3635873333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4153866666666667</v>
+        <v>0.3613116666666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.395042</v>
+        <v>0.357451</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3941095</v>
+        <v>0.3513778333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3911870000000001</v>
+        <v>0.347784</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3893501666666667</v>
+        <v>0.3415558333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3706874999999999</v>
+        <v>0.3398281666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3706711666666667</v>
+        <v>0.3389005</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3631455</v>
+        <v>0.3304925</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3613116666666666</v>
+        <v>0.3303003333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.357451</v>
+        <v>0.3142616666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3513778333333333</v>
+        <v>0.3074538333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.347784</v>
+        <v>0.3056148333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.339067</v>
+        <v>0.2987646666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3389005</v>
+        <v>0.2982673333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3337881666666667</v>
+        <v>0.2982673333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3304925</v>
+        <v>0.2810833333333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3267703333333333</v>
+        <v>0.2705596666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3219126666666666</v>
+        <v>0.2655446666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3124836666666667</v>
+        <v>0.2639106666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3074538333333334</v>
+        <v>0.2587506666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3056148333333333</v>
+        <v>0.2491341666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2987646666666667</v>
+        <v>0.2480846666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2982673333333333</v>
+        <v>0.246051</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2963261666666667</v>
+        <v>0.2440801666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2810833333333334</v>
+        <v>0.241189</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2739046666666667</v>
+        <v>0.2407898333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2639106666666667</v>
+        <v>0.2361386666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2587506666666666</v>
+        <v>0.2089775</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2480846666666666</v>
+        <v>0.208311</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.246051</v>
+        <v>0.1944258333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2440801666666667</v>
+        <v>0.1916846666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.241189</v>
+        <v>0.1907146666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2407898333333333</v>
+        <v>0.1907146666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2361386666666667</v>
+        <v>0.1901663333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2089775</v>
+        <v>0.1901663333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.208311</v>
+        <v>0.1839771666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2072293333333333</v>
+        <v>0.1807503333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1916846666666667</v>
+        <v>0.1792003333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1907146666666667</v>
+        <v>0.1777756666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1901663333333333</v>
+        <v>0.1740818333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1901663333333333</v>
+        <v>0.173832</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1807503333333333</v>
+        <v>0.1733208333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1792003333333333</v>
+        <v>0.1713176666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1777756666666667</v>
+        <v>0.168619</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1733208333333333</v>
+        <v>0.1638638333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1715276666666667</v>
+        <v>0.1581695</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1713176666666666</v>
+        <v>0.153624</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1638638333333333</v>
+        <v>0.153624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1581695</v>
+        <v>0.1525111666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.153624</v>
+        <v>0.1475713333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.153624</v>
+        <v>0.1326376666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1475713333333333</v>
+        <v>0.1226171666666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1226171666666666</v>
+        <v>0.1214286666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1214286666666667</v>
+        <v>0.1178891666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1152491666666667</v>
+        <v>0.1150173333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1150173333333333</v>
+        <v>0.1137105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1016206666666666</v>
+        <v>0.112223</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09202783333333334</v>
+        <v>0.1034353333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08680983333333334</v>
+        <v>0.09202783333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06776966666666666</v>
+        <v>0.08680983333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.066298</v>
+        <v>0.06776966666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05529183333333333</v>
+        <v>0.066298</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05319266666666668</v>
+        <v>0.05529183333333333</v>
       </c>
     </row>
     <row r="96">
@@ -1412,31 +1412,31 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01565066666666667</v>
+        <v>0.0279585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0123535</v>
+        <v>0.01565066666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.008358333333333332</v>
+        <v>0.0123535</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic2_candidates.xlsx
+++ b/datamining/final_data/topic2_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.904767</v>
+        <v>0.8858962499999999</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8520063333333334</v>
+        <v>0.8241404166666667</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8200725</v>
+        <v>0.796698125</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7612186666666667</v>
+        <v>0.7387683333333334</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6928691666666666</v>
+        <v>0.6679914583333333</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6869206666666666</v>
+        <v>0.6608858333333333</v>
       </c>
     </row>
     <row r="8">
@@ -506,67 +506,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6789466666666667</v>
+        <v>0.6558058333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5853558333333333</v>
+        <v>0.5645466666666668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5793293333333334</v>
+        <v>0.5599122916666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('다음', '같')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5436183333333333</v>
+        <v>0.5265474999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.530988</v>
+        <v>0.5184329166666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5229068333333333</v>
+        <v>0.5023725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.51609</v>
+        <v>0.5020235416666666</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.515974</v>
+        <v>0.4944225</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.512441</v>
+        <v>0.49196125</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4954249999999999</v>
+        <v>0.47580125</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4853305</v>
+        <v>0.460845625</v>
       </c>
     </row>
     <row r="19">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4809951666666666</v>
+        <v>0.4592989583333333</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4753793333333334</v>
+        <v>0.4540166666666667</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4637201666666667</v>
+        <v>0.4516952083333334</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4632336666666667</v>
+        <v>0.4420570833333333</v>
       </c>
     </row>
     <row r="23">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.457453</v>
+        <v>0.43299125</v>
       </c>
     </row>
     <row r="24">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4474998333333334</v>
+        <v>0.4310522916666667</v>
       </c>
     </row>
     <row r="25">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4454543333333333</v>
+        <v>0.4302629166666667</v>
       </c>
     </row>
     <row r="26">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4199141666666666</v>
+        <v>0.3962677083333333</v>
       </c>
     </row>
     <row r="27">
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.395042</v>
+        <v>0.3875775</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3941153333333333</v>
+        <v>0.3771302083333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3911870000000001</v>
+        <v>0.3734741666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3893501666666667</v>
+        <v>0.36232125</v>
       </c>
     </row>
     <row r="31">
@@ -736,67 +736,67 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3706874999999999</v>
+        <v>0.356669375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('간', '상호', '작용')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3635873333333333</v>
+        <v>0.3451645833333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3613116666666666</v>
+        <v>0.3410816666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.357451</v>
+        <v>0.327950625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3513778333333333</v>
+        <v>0.32708375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.347784</v>
+        <v>0.3233822916666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3415558333333333</v>
+        <v>0.3202197916666667</v>
       </c>
     </row>
     <row r="38">
@@ -806,37 +806,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3398281666666667</v>
+        <v>0.3193102083333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3389005</v>
+        <v>0.3182375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3304925</v>
+        <v>0.3143154166666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3303003333333333</v>
+        <v>0.312865625</v>
       </c>
     </row>
     <row r="42">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3142616666666667</v>
+        <v>0.2994720833333333</v>
       </c>
     </row>
     <row r="43">
@@ -856,37 +856,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3074538333333334</v>
+        <v>0.2963897916666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3056148333333333</v>
+        <v>0.2847733333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2987646666666667</v>
+        <v>0.2779710416666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2982673333333333</v>
+        <v>0.2742416666666667</v>
       </c>
     </row>
     <row r="47">
@@ -896,17 +896,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2982673333333333</v>
+        <v>0.2730091666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2810833333333334</v>
+        <v>0.2730091666666666</v>
       </c>
     </row>
     <row r="49">
@@ -916,47 +916,47 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2705596666666666</v>
+        <v>0.2622820833333334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2655446666666667</v>
+        <v>0.2581308333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2639106666666667</v>
+        <v>0.2510658333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2587506666666666</v>
+        <v>0.2420527083333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2491341666666667</v>
+        <v>0.2371902083333333</v>
       </c>
     </row>
     <row r="54">
@@ -966,57 +966,57 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2480846666666666</v>
+        <v>0.2357583333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.246051</v>
+        <v>0.2294033333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2440801666666667</v>
+        <v>0.2264833333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.241189</v>
+        <v>0.22022375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2407898333333333</v>
+        <v>0.21662625</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2361386666666667</v>
+        <v>0.2114247916666667</v>
       </c>
     </row>
     <row r="60">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2089775</v>
+        <v>0.193736875</v>
       </c>
     </row>
     <row r="61">
@@ -1036,167 +1036,167 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.208311</v>
+        <v>0.19159875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1944258333333333</v>
+        <v>0.1868283333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1916846666666667</v>
+        <v>0.1846333333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1907146666666667</v>
+        <v>0.1846333333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1907146666666667</v>
+        <v>0.1826097916666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1901663333333333</v>
+        <v>0.1758439583333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1901663333333333</v>
+        <v>0.1741204166666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1839771666666667</v>
+        <v>0.1688429166666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1807503333333333</v>
+        <v>0.1675645833333334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1792003333333333</v>
+        <v>0.1650522916666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1777756666666667</v>
+        <v>0.1633375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1740818333333333</v>
+        <v>0.16221125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.173832</v>
+        <v>0.1612335416666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1733208333333333</v>
+        <v>0.1593879166666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1713176666666666</v>
+        <v>0.1593879166666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.168619</v>
+        <v>0.1563697916666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1638638333333333</v>
+        <v>0.1491664583333333</v>
       </c>
     </row>
     <row r="78">
@@ -1206,47 +1206,47 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1581695</v>
+        <v>0.146486875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.153624</v>
+        <v>0.1424770833333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.153624</v>
+        <v>0.1420216666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1525111666666667</v>
+        <v>0.1365225</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1475713333333333</v>
+        <v>0.1365225</v>
       </c>
     </row>
     <row r="83">
@@ -1256,47 +1256,47 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1326376666666667</v>
+        <v>0.1280670833333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1226171666666666</v>
+        <v>0.1178933333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1214286666666667</v>
+        <v>0.1130314583333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1178891666666667</v>
+        <v>0.1109966666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1150173333333333</v>
+        <v>0.1052989583333333</v>
       </c>
     </row>
     <row r="88">
@@ -1306,27 +1306,27 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1137105</v>
+        <v>0.105075625</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.112223</v>
+        <v>0.09486166666666665</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1034353333333333</v>
+        <v>0.09153625000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.09202783333333334</v>
+        <v>0.08247979166666666</v>
       </c>
     </row>
     <row r="92">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08680983333333334</v>
+        <v>0.07462229166666667</v>
       </c>
     </row>
     <row r="93">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06776966666666666</v>
+        <v>0.06232958333333333</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.066298</v>
+        <v>0.057805</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05529183333333333</v>
+        <v>0.05038479166666666</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04252816666666667</v>
+        <v>0.03676020833333334</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.032264</v>
+        <v>0.0271725</v>
       </c>
     </row>
     <row r="98">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02956</v>
+        <v>0.025485</v>
       </c>
     </row>
     <row r="99">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0279585</v>
+        <v>0.021838125</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01565066666666667</v>
+        <v>0.01054583333333333</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0123535</v>
+        <v>0.003749374999999999</v>
       </c>
     </row>
   </sheetData>
